--- a/src/test/resources/data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThainerPerez\Repositorios\digicredito-serenety-bdd\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675300F7-0922-45F9-B8AA-94B77E9FE022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE04B0D-3DB0-49EB-BA94-2BA8002A3AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="RetanqueoDigiCredito" sheetId="16" r:id="rId1"/>
@@ -958,9 +958,6 @@
     <t>modalidadDesembolso</t>
   </si>
   <si>
-    <t xml:space="preserve">"Pago masivo (efectivo)" </t>
-  </si>
-  <si>
     <t>tipoCliente</t>
   </si>
   <si>
@@ -994,12 +991,6 @@
     <t xml:space="preserve">"ingeniero" </t>
   </si>
   <si>
-    <t>departamentoResidencia</t>
-  </si>
-  <si>
-    <t>ciudadResidencia</t>
-  </si>
-  <si>
     <t>direccionResidencia</t>
   </si>
   <si>
@@ -1165,7 +1156,16 @@
     <t>|</t>
   </si>
   <si>
-    <t>|Cedula|Credito|oficinaAsesor|nombresApellidos|fechaNacimiento|celular|Correo|actividad|pagaduria|Contacto|Retanqueo|Tasa|Plazo|DiasHabilesIntereses|descNomina|descLey|Ingresos|VlrCompraSaneamiento|lineaCredito|rutaPDF|estadoActual|page|codigo|primerNombre|segundoNombre|primerApellido|segundoApellido|NombreCredito|fechaExpedicion|genero|estrado|tipoVivienda|claseVivienda|posicionHogar|nivelEscolaridad|cuotaHipotecaria|tipoDocNomina|otrosIngresos|modalidadDesembolso|tipoCliente|paisNacimiento|lugarDeNacimiento|nacionalidad|estadoCivil|profesion|departamentoResidencia|ciudadResidencia|direccionResidencia|mesesResidencia|numeroHijos|personasACargo|tipoPension|codigoProgramaNomina|fechaIngreso|fechaTerminacion|nitAfiliacion|tipoDocumento|cargo|nombreBeneficario|documentoBeneficiario|celularBeneficiario|monedaExtranjera|tipoTransanccion|productoBancario|banco|numProducto|tipoProducto|pais|ciudad|monto|moneda|funcionarioPublico|recursosPublicos|expuestoPoliticamente|fechaExpuesto|Mes|fecha|AnnoAfetacion|TipoDesen|fechaActual|Banco|NumRadicadoCredito|</t>
+    <t xml:space="preserve">"Pago ma+AG1:AM2sivo (efectivo)" </t>
+  </si>
+  <si>
+    <t>montoSolicitado</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>|Cedula|Credito|oficinaAsesor|nombresApellidos|fechaNacimiento|celular|Correo|actividad|pagaduria|Contacto|montoSolicitado|Tasa|Plazo|DiasHabilesIntereses|descNomina|descLey|Ingresos|VlrCompraSaneamiento|lineaCredito|rutaPDF|estadoActual|page|codigo|primerNombre|segundoNombre|primerApellido|segundoApellido|NombreCredito|fechaExpedicion|genero|estrado|tipoVivienda|claseVivienda|posicionHogar|nivelEscolaridad|cuotaHipotecaria|tipoDocNomina|otrosIngresos|modalidadDesembolso|tipoCliente|paisNacimiento|lugarDeNacimiento|nacionalidad|estadoCivil|profesion|departamento|ciudad|direccionResidencia|mesesResidencia|numeroHijos|personasACargo|tipoPension|codigoProgramaNomina|fechaIngreso|fechaTerminacion|nitAfiliacion|tipoDocumento|cargo|nombreBeneficario|documentoBeneficiario|celularBeneficiario|monedaExtranjera|tipoTransanccion|productoBancario|banco|numProducto|tipoProducto|pais|ciudad|monto|moneda|funcionarioPublico|recursosPublicos|expuestoPoliticamente|fechaExpuesto|Mes|fecha|AnnoAfetacion|TipoDesen|fechaActual|Banco|NumRadicadoCredito|</t>
   </si>
 </sst>
 </file>
@@ -1575,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
-  <dimension ref="A1:CD5"/>
+  <dimension ref="A1:CD3"/>
   <sheetViews>
-    <sheetView topLeftCell="BO1" workbookViewId="0">
-      <selection sqref="A1:CD1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1678,7 @@
         <v>63</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -1765,112 +1765,112 @@
         <v>105</v>
       </c>
       <c r="AN1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AO1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>111</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>112</v>
-      </c>
       <c r="AR1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AT1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="AU1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW1" t="s">
         <v>119</v>
       </c>
-      <c r="AV1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>122</v>
-      </c>
       <c r="AX1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AY1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>126</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>129</v>
-      </c>
       <c r="BA1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BB1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BC1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="BD1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="BE1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="BF1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BG1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="BH1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>145</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL1" t="s">
         <v>147</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>148</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>149</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>150</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>151</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>152</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>153</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>154</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>155</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>156</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>157</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>158</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>161</v>
       </c>
       <c r="BX1" s="2" t="s">
         <v>19</v>
@@ -2010,115 +2010,115 @@
         <v>104</v>
       </c>
       <c r="AM2" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="AN2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AP2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AS2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AT2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AU2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AV2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AW2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AX2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AY2" t="s">
         <v>30</v>
       </c>
       <c r="AZ2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="BA2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BB2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BC2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="BD2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="BE2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="BF2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="BG2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="BH2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="BI2" t="s">
         <v>45</v>
       </c>
       <c r="BJ2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>163</v>
       </c>
-      <c r="BK2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>166</v>
-      </c>
       <c r="BR2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="BS2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BT2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="BU2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="BV2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="BW2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BX2" t="s">
         <v>43</v>
@@ -2133,28 +2133,28 @@
         <v>28</v>
       </c>
       <c r="CB2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="CC2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="CD2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="W5" s="2"/>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="W3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2169,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983080B5-F79F-4E10-984D-F3395E80E51E}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374898F7-A4A3-42E8-ABD5-C4EEC272BEC4}">
   <dimension ref="A2:CD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2371,7 +2371,7 @@
         <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
@@ -2458,112 +2458,112 @@
         <v>105</v>
       </c>
       <c r="AN2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AO2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>111</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>112</v>
-      </c>
       <c r="AR2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AT2" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="AU2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW2" t="s">
         <v>119</v>
       </c>
-      <c r="AV2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>122</v>
-      </c>
       <c r="AX2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AY2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>126</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>129</v>
-      </c>
       <c r="BA2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BB2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BC2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="BD2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="BE2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="BF2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BG2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="BH2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>145</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL2" t="s">
         <v>147</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>148</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>149</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>150</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>151</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>152</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>153</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>154</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>155</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>156</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>157</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>158</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>161</v>
       </c>
       <c r="BX2" s="2" t="s">
         <v>19</v>
@@ -2590,12 +2590,12 @@
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A6,A2,A6,B2,A6,C2,A6,D2,A6,E2,A6,F2,A6,G2,A6,H2,A6,I2,A6,J2,A6,K2,A6,L2,A6,M2,A6,N2,A6,O2,A6,P2,A6,Q2,A6,R2,A6,S2,A6,T2,A6,U2,A6,V2,A6,W2,A6,X2,A6,Y2,A6,Z2,A6,AA2,A6,AB2,A6,AC2,A6,AD2,A6,AE2,A6,AF2,A6,AG2,A6,AH2,A6,AI2,A6,AJ2,A6,AK2,A6,AL2,A6,AM2,A6,AN2,A6,AO2,A6,AP2,A6,AQ2,A6,AR2,A6,AS2,A6,AT2,A6,AU2,A6,AV2,A6,AW2,A6,AX2,A6,AY2,A6,AZ2,A6,BA2,A6,BB2,A6,BC2,A6,BD2,A6,BE2,A6,BF2,A6,BG2,A6,BH2,A6,BI2,A6,BJ2,A6,BK2,A6,BL2,A6,BM2,A6,BN2,A6,BO2,A6,BP2,A6,BQ2,A6,BR2,A6,BS2,A6,BT2,A6,BU2,A6,BV2,A6,BW2,A6,BX2,A6,BY2,A6,BZ2,A6,CA2,A6,CB2,A6,CC2,A6,CD2,A6,)</f>
-        <v>|Cedula|Credito|oficinaAsesor|nombresApellidos|fechaNacimiento|celular|Correo|actividad|pagaduria|Contacto|Retanqueo|Tasa|Plazo|DiasHabilesIntereses|descNomina|descLey|Ingresos|VlrCompraSaneamiento|lineaCredito|rutaPDF|estadoActual|page|codigo|primerNombre|segundoNombre|primerApellido|segundoApellido|NombreCredito|fechaExpedicion|genero|estrado|tipoVivienda|claseVivienda|posicionHogar|nivelEscolaridad|cuotaHipotecaria|tipoDocNomina|otrosIngresos|modalidadDesembolso|tipoCliente|paisNacimiento|lugarDeNacimiento|nacionalidad|estadoCivil|profesion|departamentoResidencia|ciudadResidencia|direccionResidencia|mesesResidencia|numeroHijos|personasACargo|tipoPension|codigoProgramaNomina|fechaIngreso|fechaTerminacion|nitAfiliacion|tipoDocumento|cargo|nombreBeneficario|documentoBeneficiario|celularBeneficiario|monedaExtranjera|tipoTransanccion|productoBancario|banco|numProducto|tipoProducto|pais|ciudad|monto|moneda|funcionarioPublico|recursosPublicos|expuestoPoliticamente|fechaExpuesto|Mes|fecha|AnnoAfetacion|TipoDesen|fechaActual|Banco|NumRadicadoCredito|</v>
+        <v>|Cedula|Credito|oficinaAsesor|nombresApellidos|fechaNacimiento|celular|Correo|actividad|pagaduria|Contacto|montoSolicitado|Tasa|Plazo|DiasHabilesIntereses|descNomina|descLey|Ingresos|VlrCompraSaneamiento|lineaCredito|rutaPDF|estadoActual|page|codigo|primerNombre|segundoNombre|primerApellido|segundoApellido|NombreCredito|fechaExpedicion|genero|estrado|tipoVivienda|claseVivienda|posicionHogar|nivelEscolaridad|cuotaHipotecaria|tipoDocNomina|otrosIngresos|modalidadDesembolso|tipoCliente|paisNacimiento|lugarDeNacimiento|nacionalidad|estadoCivil|profesion|departamento|ciudad|direccionResidencia|mesesResidencia|numeroHijos|personasACargo|tipoPension|codigoProgramaNomina|fechaIngreso|fechaTerminacion|nitAfiliacion|tipoDocumento|cargo|nombreBeneficario|documentoBeneficiario|celularBeneficiario|monedaExtranjera|tipoTransanccion|productoBancario|banco|numProducto|tipoProducto|pais|ciudad|monto|moneda|funcionarioPublico|recursosPublicos|expuestoPoliticamente|fechaExpuesto|Mes|fecha|AnnoAfetacion|TipoDesen|fechaActual|Banco|NumRadicadoCredito|</v>
       </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
